--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E31A17-F036-41C1-A87D-04E6288D67FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6C9AF-2CC7-4DA0-A5FF-39123CA75EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>10-0.1, Full Text</t>
+  </si>
+  <si>
+    <t>15-0.1, Full Text</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DB88E89-A9B8-4757-ABB6-838106752702}" type="CELLRANGE">
+                    <a:fld id="{3A4B9DE6-4D65-4CB4-9E6D-4981E0207FAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -370,7 +373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0734FAA0-0AEA-4E57-ABFA-40FE1473D4BF}" type="CELLRANGE">
+                    <a:fld id="{3ABBF3F7-E325-40F3-9A77-D87ECC06D9B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -404,7 +407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{377121DF-79EB-49A0-AC17-E76A605060FD}" type="CELLRANGE">
+                    <a:fld id="{431B8F52-BBF3-44DA-9151-F68DF7C15CAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -438,7 +441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A1C5917-79F9-4E6F-A7E2-77DE34D8A48D}" type="CELLRANGE">
+                    <a:fld id="{B5C03DBA-CDFB-45AC-BB47-8A2B16357E80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -478,7 +481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27AA20BE-6E98-4D5B-B4B1-59F1CE9183DD}" type="CELLRANGE">
+                    <a:fld id="{F7F59007-7C4C-4EAD-ADEF-1C0CB73F3DAC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -511,7 +514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4337B4A7-C338-4EA8-8D44-1D78D438BD8B}" type="CELLRANGE">
+                    <a:fld id="{AFEEDDCE-1348-49B5-B84A-193546DD3DCB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -545,7 +548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CB2DFFB-6CE8-4D59-929D-6124738FCD4D}" type="CELLRANGE">
+                    <a:fld id="{74CF729D-0CB1-4C70-9ED6-BBC5A30A22F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -585,7 +588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D08C2D98-EE56-4C80-8873-5B70014E56B0}" type="CELLRANGE">
+                    <a:fld id="{55CF4FAD-9B25-4280-946D-503F87648F9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -624,7 +627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B87DAD5C-270F-4A60-B417-7E3733BDFFE6}" type="CELLRANGE">
+                    <a:fld id="{17861365-2148-4E24-AC5A-99B040CCC459}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -654,7 +657,7 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11343281804633243"/>
+                  <c:x val="0.20696514169857144"/>
                   <c:y val="1.3033560083069912E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -663,7 +666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E683E37-DDB8-46D1-BB16-A168003EC6EC}" type="CELLRANGE">
+                    <a:fld id="{1096733A-FDC4-4FFD-B73B-1DC8F7049B03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -693,7 +696,7 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1094527191675137"/>
+                  <c:x val="0.20298504281975269"/>
                   <c:y val="4.692081629905176E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -702,7 +705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E49F98F-8E89-4B80-A8CF-2962362E710D}" type="CELLRANGE">
+                    <a:fld id="{F397B7A0-CFE6-4172-9E5B-80508F26B812}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -725,6 +728,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-CB92-4D4E-BFC3-E20EFB9BCC71}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F6E7C769-5E87-4B18-ADC8-09B83B8F9D29}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -785,10 +822,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.663</c:v>
                 </c:pt>
@@ -821,16 +858,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.2843858949188528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31798061826909796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -863,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.71267524329512455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67648695688420291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,9 +914,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$2:$B$12</c15:f>
+                <c15:f>Sheet1!$B$2:$B$13</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
                     <c:v>Old</c:v>
                   </c:pt>
@@ -906,6 +949,9 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>10-0.1, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15-0.1, Full Text</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2094,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2233,7 @@
         <v>2.2476603113357601</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:F12" si="0">C5/$G$2</f>
+        <f t="shared" ref="E5:F13" si="0">C5/$G$2</f>
         <v>2.1996967239331932E-2</v>
       </c>
       <c r="F5">
@@ -2326,6 +2372,25 @@
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0.71267524329512455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.77037819428127996</v>
+      </c>
+      <c r="D13">
+        <v>1.6389388860746701</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.31798061826909796</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.67648695688420291</v>
       </c>
     </row>
   </sheetData>

--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D6C9AF-2CC7-4DA0-A5FF-39123CA75EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB764AE-7768-4E0F-9FE9-1AE541712A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
+    <workbookView xWindow="-10785" yWindow="6150" windowWidth="21600" windowHeight="11205" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>15-0.1, Full Text</t>
+  </si>
+  <si>
+    <t>20-0.1, Full Text</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>20-0.05, Full Text</t>
+  </si>
+  <si>
+    <t>15-0.02, Full Text</t>
+  </si>
+  <si>
+    <t>25-0.02, Full Text</t>
+  </si>
+  <si>
+    <t>50-0.01, Full Text</t>
   </si>
 </sst>
 </file>
@@ -339,7 +357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A4B9DE6-4D65-4CB4-9E6D-4981E0207FAD}" type="CELLRANGE">
+                    <a:fld id="{788E9302-7320-45FD-9D39-912ADAC5D49D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -373,7 +391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ABBF3F7-E325-40F3-9A77-D87ECC06D9B0}" type="CELLRANGE">
+                    <a:fld id="{8B141BDE-0112-41F7-BF22-31117B6A0908}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -407,7 +425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{431B8F52-BBF3-44DA-9151-F68DF7C15CAF}" type="CELLRANGE">
+                    <a:fld id="{FE68C80D-C216-499D-A37A-98706716B2D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -441,7 +459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5C03DBA-CDFB-45AC-BB47-8A2B16357E80}" type="CELLRANGE">
+                    <a:fld id="{8989F947-2B14-44A6-91F6-B3DB63A4F754}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -481,7 +499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7F59007-7C4C-4EAD-ADEF-1C0CB73F3DAC}" type="CELLRANGE">
+                    <a:fld id="{0ABF96E3-1430-4305-B21D-623DDAF4536B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -514,7 +532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFEEDDCE-1348-49B5-B84A-193546DD3DCB}" type="CELLRANGE">
+                    <a:fld id="{5F502716-5A23-4562-A5AC-5741E29664B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -548,7 +566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74CF729D-0CB1-4C70-9ED6-BBC5A30A22F2}" type="CELLRANGE">
+                    <a:fld id="{E9A4D0F2-C0FB-41C2-8F4B-CCF53AAEFC1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -588,7 +606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55CF4FAD-9B25-4280-946D-503F87648F9E}" type="CELLRANGE">
+                    <a:fld id="{2938424D-DC28-4095-8E66-FCAD31B2A551}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -627,7 +645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17861365-2148-4E24-AC5A-99B040CCC459}" type="CELLRANGE">
+                    <a:fld id="{A877A947-3F19-4898-91AC-3D30221000D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -666,7 +684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1096733A-FDC4-4FFD-B73B-1DC8F7049B03}" type="CELLRANGE">
+                    <a:fld id="{44FBAEFF-DBB0-44FE-A5A5-FC726C15463D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -705,7 +723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F397B7A0-CFE6-4172-9E5B-80508F26B812}" type="CELLRANGE">
+                    <a:fld id="{C13D9EAA-931F-4E5F-A8A2-6FAE01559054}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -733,12 +751,207 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7611928136964298E-2"/>
+                  <c:y val="0.20853696132911936"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6E7C769-5E87-4B18-ADC8-09B83B8F9D29}" type="CELLRANGE">
+                    <a:fld id="{EFEE0E75-FFB7-47A0-9E00-DB4B8DA93C3A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7810939348777405E-2"/>
+                  <c:y val="0.11990875276424363"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C0B860AD-784B-4725-AE0E-EEE7F6E9F798}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1791038227596118E-2"/>
+                  <c:y val="8.6021496548261731E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D924D495-38DE-4ACE-BDAC-6AAA8A2EB247}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9552224773420341E-2"/>
+                  <c:y val="0.1981101132626634"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BBA95F18-7975-491B-81D4-3ED157B544BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1890543833502748E-2"/>
+                  <c:y val="0.27891818577769706"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{107D0351-CE08-4C5B-8FD6-C5C533D94FB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37A75748-B834-4D68-A949-CAAB376BF559}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -761,7 +974,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
+                  <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -822,10 +1035,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>Sheet1!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.663</c:v>
                 </c:pt>
@@ -861,16 +1074,31 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.31798061826909796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36458022900763015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35258814961712343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27294100086380163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33594723350244887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35119127481962015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -906,6 +1134,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.67648695688420291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65972889161909132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65971257990172705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69824085631250266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6579212567586209</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64024083802081433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,9 +1157,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$2:$B$13</c15:f>
+                <c15:f>Sheet1!$B$2:$B$18</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="12"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>Old</c:v>
                   </c:pt>
@@ -952,6 +1195,21 @@
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>15-0.1, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>20-0.1, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>20-0.05, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15-0.02, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>25-0.02, Full Text</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>50-0.01, Full Text</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1806,16 +2064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2140,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2415,7 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,8 +2437,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2196,8 +2457,12 @@
       <c r="G2">
         <v>2.4227205999999999</v>
       </c>
+      <c r="H2">
+        <f>E2+F2</f>
+        <v>2.4990000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2207,8 +2472,12 @@
       <c r="F3">
         <v>0.81893997007389796</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H18" si="0">E3+F3</f>
+        <v>3.0564752284439778</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2221,8 +2490,12 @@
       <c r="F4">
         <v>0.96099999999999997</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.98199999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2233,15 +2506,19 @@
         <v>2.2476603113357601</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:F13" si="0">C5/$G$2</f>
+        <f t="shared" ref="E5:F18" si="1">C5/$G$2</f>
         <v>2.1996967239331932E-2</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.9277422709559493</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.9277422709559493</v>
+        <v>0.94973923819528128</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -2252,15 +2529,19 @@
         <v>1.88565074780221</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.18585422474757182</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.77831952549634076</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.18585422474757182</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.77831952549634076</v>
+        <v>0.96417375024391261</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -2271,15 +2552,19 @@
         <v>2.1350067720739001</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.5166579750653584E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.88124349628838761</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>3.5166579750653584E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.88124349628838761</v>
+        <v>0.91641007603904123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2290,15 +2575,19 @@
         <v>2.01510693410071</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.13140274642397931</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.83175374580985939</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.13140274642397931</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.83175374580985939</v>
+        <v>0.9631564922338387</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -2309,15 +2598,19 @@
         <v>1.8936263467804799</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.18119797088221029</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.7816115266368231</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.18119797088221029</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.7816115266368231</v>
+        <v>0.96280949751903333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -2328,15 +2621,19 @@
         <v>1.89625973148816</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.18492890550808586</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.78269848016653676</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.18492890550808586</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.78269848016653676</v>
+        <v>0.96762738567462259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2347,15 +2644,19 @@
         <v>1.7336365497989901</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.26470951512920804</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.71557428033549975</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.26470951512920804</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.71557428033549975</v>
+        <v>0.98028379546470779</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2366,15 +2667,19 @@
         <v>1.72661299304111</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.2843858949188528</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.71267524329512455</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.2843858949188528</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.71267524329512455</v>
+        <v>0.99706113821397735</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -2385,12 +2690,131 @@
         <v>1.6389388860746701</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.31798061826909796</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.67648695688420291</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.31798061826909796</v>
-      </c>
-      <c r="F13">
+        <v>0.99446757515330086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>0.88327603116950304</v>
+      </c>
+      <c r="D14">
+        <v>1.5983387761407399</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.36458022900763015</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.65972889161909132</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.67648695688420291</v>
+        <v>1.0243091206267214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0.854222573393287</v>
+      </c>
+      <c r="D15">
+        <v>1.59829925740706</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.35258814961712343</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.65971257990172705</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.0123007295188504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>0.66125978537734997</v>
+      </c>
+      <c r="D16">
+        <v>1.6916425063499401</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.27294100086380163</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.69824085631250266</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.97118185717630423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0.81390628311939295</v>
+      </c>
+      <c r="D17">
+        <v>1.5939593819269999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.33594723350244887</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.6579212567586209</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.99386849026106971</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>0.85083833604575498</v>
+      </c>
+      <c r="D18">
+        <v>1.55112466723429</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.35119127481962015</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.64024083802081433</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.99143211284043442</v>
       </c>
     </row>
   </sheetData>

--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB764AE-7768-4E0F-9FE9-1AE541712A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D5E27-F273-4D7E-B572-57B210750672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10785" yWindow="6150" windowWidth="21600" windowHeight="11205" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
+    <workbookView xWindow="-10530" yWindow="6015" windowWidth="21600" windowHeight="11205" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>50-0.01, Full Text</t>
+  </si>
+  <si>
+    <t>Lower</t>
   </si>
 </sst>
 </file>
@@ -240,9 +243,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Old</c:v>
                 </c:pt>
@@ -250,30 +253,33 @@
                   <c:v>New</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Lower</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Default, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Default, Title</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5-0.4, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5-0.4, Title</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3-0.3, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5-0.3, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5-0.2, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10-0.4, Full Text</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10-0.1, Full Text</c:v>
                 </c:pt>
               </c:strCache>
@@ -349,6 +355,30 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E8B4-432F-9ED1-B87A4A36B68F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -357,7 +387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{788E9302-7320-45FD-9D39-912ADAC5D49D}" type="CELLRANGE">
+                    <a:fld id="{B7620590-563A-4A95-B193-A543F2FAB47F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -391,7 +421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B141BDE-0112-41F7-BF22-31117B6A0908}" type="CELLRANGE">
+                    <a:fld id="{66518DDC-2F76-4F39-BF1D-D05C8ABE9F3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -425,7 +455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE68C80D-C216-499D-A37A-98706716B2D3}" type="CELLRANGE">
+                    <a:fld id="{27C872FA-811E-45CF-851C-FE2FAD3BA0CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -459,7 +489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8989F947-2B14-44A6-91F6-B3DB63A4F754}" type="CELLRANGE">
+                    <a:fld id="{F14516EA-E601-4243-8A11-AC78CCF202C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -488,51 +518,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14925370795570056"/>
-                  <c:y val="1.5640272099683904E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0ABF96E3-1430-4305-B21D-623DDAF4536B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-E8B4-432F-9ED1-B87A4A36B68F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5F502716-5A23-4562-A5AC-5741E29664B2}" type="CELLRANGE">
+                    <a:fld id="{66E7E010-86FF-4414-BD20-373B4F7C3478}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,6 +546,45 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E8B4-432F-9ED1-B87A4A36B68F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14925370795570056"/>
+                  <c:y val="1.5640272099683904E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F90C931-9FDE-4DF9-B2DB-D835C80309A9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-E8B4-432F-9ED1-B87A4A36B68F}"/>
                 </c:ext>
               </c:extLst>
@@ -566,7 +596,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9A4D0F2-C0FB-41C2-8F4B-CCF53AAEFC1D}" type="CELLRANGE">
+                    <a:fld id="{FB4D08E0-ABAF-45DD-9284-93009AE2ACD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -595,363 +625,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14925370795570053"/>
-                  <c:y val="-1.303356008306996E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2938424D-DC28-4095-8E66-FCAD31B2A551}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-E8B4-432F-9ED1-B87A4A36B68F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15124375739510987"/>
-                  <c:y val="-4.1707392265823921E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A877A947-3F19-4898-91AC-3D30221000D8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E8B4-432F-9ED1-B87A4A36B68F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20696514169857144"/>
-                  <c:y val="1.3033560083069912E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{44FBAEFF-DBB0-44FE-A5A5-FC726C15463D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-E8B4-432F-9ED1-B87A4A36B68F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20298504281975269"/>
-                  <c:y val="4.692081629905176E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C13D9EAA-931F-4E5F-A8A2-6FAE01559054}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-CB92-4D4E-BFC3-E20EFB9BCC71}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.7611928136964298E-2"/>
-                  <c:y val="0.20853696132911936"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EFEE0E75-FFB7-47A0-9E00-DB4B8DA93C3A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7810939348777405E-2"/>
-                  <c:y val="0.11990875276424363"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C0B860AD-784B-4725-AE0E-EEE7F6E9F798}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.1791038227596118E-2"/>
-                  <c:y val="8.6021496548261731E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D924D495-38DE-4ACE-BDAC-6AAA8A2EB247}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.9552224773420341E-2"/>
-                  <c:y val="0.1981101132626634"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BBA95F18-7975-491B-81D4-3ED157B544BC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1890543833502748E-2"/>
-                  <c:y val="0.27891818577769706"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{107D0351-CE08-4C5B-8FD6-C5C533D94FB0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{37A75748-B834-4D68-A949-CAAB376BF559}" type="CELLRANGE">
+                    <a:fld id="{C628E4BA-325A-4D56-8FBE-1060736EAB87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -974,7 +653,420 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E8B4-432F-9ED1-B87A4A36B68F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14925370795570053"/>
+                  <c:y val="-1.303356008306996E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E98D937-0ACC-4167-8B5E-FA7CB270A1AA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E8B4-432F-9ED1-B87A4A36B68F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15124375739510987"/>
+                  <c:y val="-4.1707392265823921E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0611B245-E7F2-4980-B08E-7B17BBE5349F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E8B4-432F-9ED1-B87A4A36B68F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20696514169857144"/>
+                  <c:y val="1.3033560083069912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E3EEBA7C-46C9-4CA6-966F-F45A3F0765AA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CB92-4D4E-BFC3-E20EFB9BCC71}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20298504281975269"/>
+                  <c:y val="4.692081629905176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1950C5E0-19A7-45F5-A5F4-036A19603916}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7611928136964298E-2"/>
+                  <c:y val="0.20853696132911936"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D933C226-DA82-4268-B0CF-921702E9B068}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7810939348777405E-2"/>
+                  <c:y val="0.11990875276424363"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EB44BC5-F108-4A67-A40C-34971E5C1F9B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1791038227596118E-2"/>
+                  <c:y val="8.6021496548261731E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{320DE886-F981-46B8-9BFA-7BEE552E4170}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9552224773420341E-2"/>
+                  <c:y val="0.1981101132626634"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0658D064-B2A5-46F7-B1B7-8AFA30A44473}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1890543833502748E-2"/>
+                  <c:y val="0.27891818577769706"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16262D1F-9D2B-46F2-8FC2-98423C750AE7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B4BCD502-F9DD-40E9-AAF7-A325A3966916}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8C4D-470A-971F-004B73633EC5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DDE3-4A9A-A5F1-58AD33809149}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1035,10 +1127,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$18</c:f>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.663</c:v>
                 </c:pt>
@@ -1046,59 +1138,65 @@
                   <c:v>2.2375352583700798</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.5006976602967099</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.1996967239331932E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.18585422474757182</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.5166579750653584E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.13140274642397931</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.18119797088221029</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.18492890550808586</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.26470951512920804</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.2843858949188528</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.31798061826909796</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.36458022900763015</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.35258814961712343</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.27294100086380163</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.33594723350244887</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.35119127481962015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61541440419473881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$18</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -1106,49 +1204,55 @@
                   <c:v>0.81893997007389796</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.76700659579811203</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.96099999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.9277422709559493</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.77831952549634076</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.88124349628838761</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.83175374580985939</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.7816115266368231</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.78269848016653676</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.71557428033549975</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.71267524329512455</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.67648695688420291</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.65972889161909132</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.65971257990172705</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.69824085631250266</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.6579212567586209</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.64024083802081433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0491889382550759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,9 +1261,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$2:$B$18</c15:f>
+                <c15:f>Sheet1!$B$2:$B$19</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="17"/>
+                  <c:ptCount val="18"/>
                   <c:pt idx="0">
                     <c:v>Old</c:v>
                   </c:pt>
@@ -1167,48 +1271,51 @@
                     <c:v>New</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Lower</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Default, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Default, Title</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>5-0.4, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>5-0.4, Title</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>3-0.3, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>5-0.3, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>5-0.2, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>10-0.4, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>10-0.1, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>15-0.1, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>20-0.1, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>20-0.05, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>15-0.02, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>25-0.02, Full Text</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>50-0.01, Full Text</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2065,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2398,11 +2505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2473,348 +2578,382 @@
         <v>0.81893997007389796</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="0">E3+F3</f>
+        <f t="shared" ref="H3:H20" si="0">E3+F3</f>
         <v>3.0564752284439778</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>2.5006976602967099</v>
+      </c>
+      <c r="F4">
+        <v>0.76700659579811203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>5.3292505668254601E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.2476603113357601</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:F18" si="1">C5/$G$2</f>
-        <v>2.1996967239331932E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.9277422709559493</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.94973923819528128</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.45027285889297203</v>
+        <v>5.3292505668254601E-2</v>
       </c>
       <c r="D6">
-        <v>1.88565074780221</v>
+        <v>2.2476603113357601</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.18585422474757182</v>
+        <f t="shared" ref="E6:F20" si="1">C6/$G$2</f>
+        <v>2.1996967239331932E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.77831952549634076</v>
+        <v>0.9277422709559493</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.96417375024391261</v>
+        <v>0.94973923819528128</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>8.5198797193451303E-2</v>
+        <v>0.45027285889297203</v>
       </c>
       <c r="D7">
-        <v>2.1350067720739001</v>
+        <v>1.88565074780221</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>3.5166579750653584E-2</v>
+        <v>0.18585422474757182</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.88124349628838761</v>
+        <v>0.77831952549634076</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.91641007603904123</v>
+        <v>0.96417375024391261</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.31835214065795098</v>
+        <v>8.5198797193451303E-2</v>
       </c>
       <c r="D8">
-        <v>2.01510693410071</v>
+        <v>2.1350067720739001</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.13140274642397931</v>
+        <v>3.5166579750653584E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.83175374580985939</v>
+        <v>0.88124349628838761</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.9631564922338387</v>
+        <v>0.91641007603904123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.43899205673453101</v>
+        <v>0.31835214065795098</v>
       </c>
       <c r="D9">
-        <v>1.8936263467804799</v>
+        <v>2.01510693410071</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.18119797088221029</v>
+        <v>0.13140274642397931</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.7816115266368231</v>
+        <v>0.83175374580985939</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.96280949751903333</v>
+        <v>0.9631564922338387</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>0.44803106890989303</v>
+        <v>0.43899205673453101</v>
       </c>
       <c r="D10">
-        <v>1.89625973148816</v>
+        <v>1.8936263467804799</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.18492890550808586</v>
+        <v>0.18119797088221029</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.78269848016653676</v>
+        <v>0.7816115266368231</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.96762738567462259</v>
+        <v>0.96280949751903333</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>0.64131719531954401</v>
+        <v>0.44803106890989303</v>
       </c>
       <c r="D11">
-        <v>1.7336365497989901</v>
+        <v>1.89625973148816</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.26470951512920804</v>
+        <v>0.18492890550808586</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.71557428033549975</v>
+        <v>0.78269848016653676</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.98028379546470779</v>
+        <v>0.96762738567462259</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>0.68898756596933997</v>
+        <v>0.64131719531954401</v>
       </c>
       <c r="D12">
-        <v>1.72661299304111</v>
+        <v>1.7336365497989901</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.2843858949188528</v>
+        <v>0.26470951512920804</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.71267524329512455</v>
+        <v>0.71557428033549975</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.99706113821397735</v>
+        <v>0.98028379546470779</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.77037819428127996</v>
+        <v>0.68898756596933997</v>
       </c>
       <c r="D13">
-        <v>1.6389388860746701</v>
+        <v>1.72661299304111</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.31798061826909796</v>
+        <v>0.2843858949188528</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.67648695688420291</v>
+        <v>0.71267524329512455</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.99446757515330086</v>
+        <v>0.99706113821397735</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>0.88327603116950304</v>
+        <v>0.77037819428127996</v>
       </c>
       <c r="D14">
-        <v>1.5983387761407399</v>
+        <v>1.6389388860746701</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.36458022900763015</v>
+        <v>0.31798061826909796</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.65972889161909132</v>
+        <v>0.67648695688420291</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.0243091206267214</v>
+        <v>0.99446757515330086</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0.854222573393287</v>
+        <v>0.88327603116950304</v>
       </c>
       <c r="D15">
-        <v>1.59829925740706</v>
+        <v>1.5983387761407399</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.35258814961712343</v>
+        <v>0.36458022900763015</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.65971257990172705</v>
+        <v>0.65972889161909132</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.0123007295188504</v>
+        <v>1.0243091206267214</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.66125978537734997</v>
+        <v>0.854222573393287</v>
       </c>
       <c r="D16">
-        <v>1.6916425063499401</v>
+        <v>1.59829925740706</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.27294100086380163</v>
+        <v>0.35258814961712343</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.69824085631250266</v>
+        <v>0.65971257990172705</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.97118185717630423</v>
+        <v>1.0123007295188504</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>0.81390628311939295</v>
+        <v>0.66125978537734997</v>
       </c>
       <c r="D17">
-        <v>1.5939593819269999</v>
+        <v>1.6916425063499401</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.33594723350244887</v>
+        <v>0.27294100086380163</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.6579212567586209</v>
+        <v>0.69824085631250266</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.99386849026106971</v>
+        <v>0.97118185717630423</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.85083833604575498</v>
+        <v>0.81390628311939295</v>
       </c>
       <c r="D18">
-        <v>1.55112466723429</v>
+        <v>1.5939593819269999</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.35119127481962015</v>
+        <v>0.33594723350244887</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.64024083802081433</v>
+        <v>0.6579212567586209</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
+        <v>0.99386849026106971</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>0.85083833604575498</v>
+      </c>
+      <c r="D19">
+        <v>1.55112466723429</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.35119127481962015</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.64024083802081433</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>0.99143211284043442</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>1.49097715457932</v>
+      </c>
+      <c r="D20">
+        <v>2.5418916540027001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.61541440419473881</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.0491889382550759</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.6646033424498148</v>
       </c>
     </row>
   </sheetData>

--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D5E27-F273-4D7E-B572-57B210750672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6E87F-BBBC-45D1-81F2-F72609DC9FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10530" yWindow="6015" windowWidth="21600" windowHeight="11205" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -115,16 +115,100 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>TF-IDF + NN</t>
+  </si>
+  <si>
+    <t>ComplementNB, 5-0.3, Full Text</t>
+  </si>
+  <si>
+    <t>15-0.02</t>
+  </si>
+  <si>
+    <t>25-0.02</t>
+  </si>
+  <si>
+    <t>50-0.01</t>
+  </si>
+  <si>
+    <t>ComplementNB, 5-0.3</t>
+  </si>
+  <si>
+    <t>1%, 10 epochs [400,200] ReLU Adam</t>
+  </si>
+  <si>
+    <t>2%, 10 epochs [400,200] Sigmoid Adam</t>
+  </si>
+  <si>
+    <t>10%, 4 epochs [800,400] ReLU Adam</t>
+  </si>
+  <si>
+    <t>10%, 4 epochs [800,400,200] ReLU Adam</t>
+  </si>
+  <si>
+    <t>[400,200] ReLU</t>
+  </si>
+  <si>
+    <t>[400,200] Sigmoid</t>
+  </si>
+  <si>
+    <t>[800,400] ReLU</t>
+  </si>
+  <si>
+    <t>[800,400,200] ReLU</t>
+  </si>
+  <si>
+    <t>20%, 4 epochs [1000,500] ReLU Adam 0.0002</t>
+  </si>
+  <si>
+    <t>[1000,500] ReLU</t>
+  </si>
+  <si>
+    <t>20%, 4 epochs [1000,500] ReLU Adam 1e-4</t>
+  </si>
+  <si>
+    <t>20%, 8 epochs [1000,500] ReLU Adam 1e-4</t>
+  </si>
+  <si>
+    <t>20%, 10 epochs [1000,500] ReLU Adam 1e-4</t>
+  </si>
+  <si>
+    <t>50%, 10 epochs [600,300] ReLU Adam 1e-4</t>
+  </si>
+  <si>
+    <t>20%, 20 epochs [1000,500] ReLU Adam 1e-4</t>
+  </si>
+  <si>
+    <t>[600,300] ReLU</t>
+  </si>
+  <si>
+    <t>w2v + LSTM RNN</t>
+  </si>
+  <si>
+    <t>1%, 2 epochs</t>
+  </si>
+  <si>
+    <t>100%, 10 epochs [1000,500] ReLU Adam 1e-5</t>
+  </si>
+  <si>
+    <t>10%, 10 epochs, BCE, Adam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,8 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,6 +464,270 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E8B4-432F-9ED1-B87A4A36B68F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E8B4-432F-9ED1-B87A4A36B68F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E8B4-432F-9ED1-B87A4A36B68F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-E8B4-432F-9ED1-B87A4A36B68F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CB92-4D4E-BFC3-E20EFB9BCC71}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -387,7 +736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7620590-563A-4A95-B193-A543F2FAB47F}" type="CELLRANGE">
+                    <a:fld id="{64D43693-DFD2-4DFF-94E7-C55FC9FC9FE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -421,7 +770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66518DDC-2F76-4F39-BF1D-D05C8ABE9F3F}" type="CELLRANGE">
+                    <a:fld id="{52FC19B1-248B-44AA-A315-6175981E6C60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -455,7 +804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C872FA-811E-45CF-851C-FE2FAD3BA0CC}" type="CELLRANGE">
+                    <a:fld id="{E3F13F69-DD9D-4D0C-A606-66CF650EBA4F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -489,7 +838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F14516EA-E601-4243-8A11-AC78CCF202C3}" type="CELLRANGE">
+                    <a:fld id="{ACCA1821-872F-4186-B04B-9E9CB021CA0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -523,7 +872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66E7E010-86FF-4414-BD20-373B4F7C3478}" type="CELLRANGE">
+                    <a:fld id="{E914884F-3E35-43AC-91F2-27335AC4A4A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -554,8 +903,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14925370795570056"/>
-                  <c:y val="1.5640272099683904E-2"/>
+                  <c:x val="1.5920395515274726E-2"/>
+                  <c:y val="1.303356008306996E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -563,7 +912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F90C931-9FDE-4DF9-B2DB-D835C80309A9}" type="CELLRANGE">
+                    <a:fld id="{11840230-F993-4CCB-890C-ABD1190E47B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -591,12 +940,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9601977576373457E-3"/>
+                  <c:y val="-9.7602069052433169E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB4D08E0-ABAF-45DD-9284-93009AE2ACD9}" type="CELLRANGE">
+                    <a:fld id="{78E2B3A1-2245-4ED2-A933-7FB1AF29FCBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -615,7 +970,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -625,12 +979,18 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8241909129161387E-17"/>
+                  <c:y val="-9.3841632598103727E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C628E4BA-325A-4D56-8FBE-1060736EAB87}" type="CELLRANGE">
+                    <a:fld id="{7B76723D-ACE2-4B0B-BC63-66EDEF7AD14D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -649,7 +1009,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -661,8 +1020,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14925370795570053"/>
-                  <c:y val="-1.303356008306996E-2"/>
+                  <c:x val="1.1940296636456045E-2"/>
+                  <c:y val="-0.11969380654140571"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -670,7 +1029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E98D937-0ACC-4167-8B5E-FA7CB270A1AA}" type="CELLRANGE">
+                    <a:fld id="{7928D23A-EB19-48D8-B609-93DA25441153}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -700,8 +1059,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15124375739510987"/>
-                  <c:y val="-4.1707392265823921E-2"/>
+                  <c:x val="3.9800988788186815E-3"/>
+                  <c:y val="-0.14474599860821155"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -709,7 +1068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0611B245-E7F2-4980-B08E-7B17BBE5349F}" type="CELLRANGE">
+                    <a:fld id="{19572303-507D-496E-994D-7C72E0E9CC6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -739,8 +1098,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20696514169857144"/>
-                  <c:y val="1.3033560083069912E-2"/>
+                  <c:x val="1.5920395515274726E-2"/>
+                  <c:y val="0.27557411273486432"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -748,7 +1107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3EEBA7C-46C9-4CA6-966F-F45A3F0765AA}" type="CELLRANGE">
+                    <a:fld id="{FDB3408E-3814-4AC4-A17D-7082A1E62F72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -776,274 +1135,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20298504281975269"/>
-                  <c:y val="4.692081629905176E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1950C5E0-19A7-45F5-A5F4-036A19603916}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.7611928136964298E-2"/>
-                  <c:y val="0.20853696132911936"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D933C226-DA82-4268-B0CF-921702E9B068}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7810939348777405E-2"/>
-                  <c:y val="0.11990875276424363"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3EB44BC5-F108-4A67-A40C-34971E5C1F9B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.1791038227596118E-2"/>
-                  <c:y val="8.6021496548261731E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{320DE886-F981-46B8-9BFA-7BEE552E4170}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.9552224773420341E-2"/>
-                  <c:y val="0.1981101132626634"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0658D064-B2A5-46F7-B1B7-8AFA30A44473}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1890543833502748E-2"/>
-                  <c:y val="0.27891818577769706"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{16262D1F-9D2B-46F2-8FC2-98423C750AE7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B4BCD502-F9DD-40E9-AAF7-A325A3966916}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8C4D-470A-971F-004B73633EC5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1066,7 +1157,147 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DDE3-4A9A-A5F1-58AD33809149}"/>
+                  <c16:uniqueId val="{00000002-4698-439B-A6AF-2355F8768895}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1127,10 +1358,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.663</c:v>
                 </c:pt>
@@ -1141,62 +1372,53 @@
                   <c:v>2.5006976602967099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.27294100086380163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1996967239331932E-2</c:v>
+                  <c:v>0.33594723350244887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18585422474757182</c:v>
+                  <c:v>0.35119127481962015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5166579750653584E-2</c:v>
+                  <c:v>0.15522944998564672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13140274642397931</c:v>
+                  <c:v>3.1807734584473633E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18119797088221029</c:v>
+                  <c:v>0.22228342257401371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18492890550808586</c:v>
+                  <c:v>0.20290220620948823</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26470951512920804</c:v>
+                  <c:v>0.13768522872579819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2843858949188528</c:v>
+                  <c:v>0.16992299795034185</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31798061826909796</c:v>
+                  <c:v>0.20365105963443741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36458022900763015</c:v>
+                  <c:v>0.22502674700204514</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35258814961712343</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27294100086380163</c:v>
+                  <c:v>0.19795829072675447</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33594723350244887</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.35119127481962015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.61541440419473881</c:v>
+                  <c:v>1.9946588434724088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -1207,52 +1429,43 @@
                   <c:v>0.76700659579811203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96099999999999997</c:v>
+                  <c:v>0.69824085631250266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9277422709559493</c:v>
+                  <c:v>0.6579212567586209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77831952549634076</c:v>
+                  <c:v>0.64024083802081433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88124349628838761</c:v>
+                  <c:v>0.80149991081414018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83175374580985939</c:v>
+                  <c:v>0.98833823312594948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7816115266368231</c:v>
+                  <c:v>0.63006006282503235</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78269848016653676</c:v>
+                  <c:v>0.66376588133809156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.71557428033549975</c:v>
+                  <c:v>0.71152196955687752</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71267524329512455</c:v>
+                  <c:v>0.66058510787964164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67648695688420291</c:v>
+                  <c:v>0.63003040526364862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65972889161909132</c:v>
+                  <c:v>0.61460105895355832</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65971257990172705</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.69824085631250266</c:v>
+                  <c:v>0.62003877283333864</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6579212567586209</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64024083802081433</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0491889382550759</c:v>
+                  <c:v>0.40798903095795402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,9 +1474,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$2:$B$19</c15:f>
+                <c15:f>Sheet1!$C$2:$C$26</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="18"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>Old</c:v>
                   </c:pt>
@@ -1274,49 +1487,28 @@
                     <c:v>Lower</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Default, Full Text</c:v>
+                    <c:v>15-0.02</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Default, Title</c:v>
+                    <c:v>25-0.02</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5-0.4, Full Text</c:v>
+                    <c:v>50-0.01</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5-0.4, Title</c:v>
+                    <c:v>[400,200] ReLU</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3-0.3, Full Text</c:v>
+                    <c:v>[400,200] Sigmoid</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>5-0.3, Full Text</c:v>
+                    <c:v>[800,400] ReLU</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>5-0.2, Full Text</c:v>
+                    <c:v>[800,400,200] ReLU</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>10-0.4, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>10-0.1, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>15-0.1, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>20-0.1, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>20-0.05, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>15-0.02, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>25-0.02, Full Text</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>50-0.01, Full Text</c:v>
+                    <c:v>[1000,500] ReLU</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2171,16 +2363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2505,458 +2697,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1.663</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.4227205999999999</v>
       </c>
-      <c r="H2">
-        <f>E2+F2</f>
+      <c r="I2">
+        <f>F2+G2</f>
         <v>2.4990000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2.2375352583700798</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.81893997007389796</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">E3+F3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="0">F3+G3</f>
         <v>3.0564752284439778</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="E4">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>2.5006976602967099</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.76700659579811203</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.3292505668254601E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.2476603113357601</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:F20" si="1">C6/$G$2</f>
+      <c r="F6">
+        <f>D6/$H$2</f>
         <v>2.1996967239331932E-2</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="G6">
+        <f>E6/$H$2</f>
         <v>0.9277422709559493</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>0.94973923819528128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.45027285889297203</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.88565074780221</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="F7">
+        <f>D7/$H$2</f>
         <v>0.18585422474757182</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="G7">
+        <f>E7/$H$2</f>
         <v>0.77831952549634076</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>0.96417375024391261</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8.5198797193451303E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.1350067720739001</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="F8">
+        <f>D8/$H$2</f>
         <v>3.5166579750653584E-2</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="G8">
+        <f>E8/$H$2</f>
         <v>0.88124349628838761</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>0.91641007603904123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.31835214065795098</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.01510693410071</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="F9">
+        <f>D9/$H$2</f>
         <v>0.13140274642397931</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
+      <c r="G9">
+        <f>E9/$H$2</f>
         <v>0.83175374580985939</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0.9631564922338387</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.43899205673453101</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.8936263467804799</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="F10">
+        <f>D10/$H$2</f>
         <v>0.18119797088221029</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <f>E10/$H$2</f>
         <v>0.7816115266368231</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>0.96280949751903333</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.44803106890989303</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.89625973148816</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="F11">
+        <f>D11/$H$2</f>
         <v>0.18492890550808586</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
+      <c r="G11">
+        <f>E11/$H$2</f>
         <v>0.78269848016653676</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>0.96762738567462259</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.64131719531954401</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.7336365497989901</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
+      <c r="F12">
+        <f>D12/$H$2</f>
         <v>0.26470951512920804</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
+      <c r="G12">
+        <f>E12/$H$2</f>
         <v>0.71557428033549975</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>0.98028379546470779</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.68898756596933997</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.72661299304111</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+      <c r="F13">
+        <f>D13/$H$2</f>
         <v>0.2843858949188528</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="G13">
+        <f>E13/$H$2</f>
         <v>0.71267524329512455</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>0.99706113821397735</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.77037819428127996</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.6389388860746701</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
+      <c r="F14">
+        <f>D14/$H$2</f>
         <v>0.31798061826909796</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
+      <c r="G14">
+        <f>E14/$H$2</f>
         <v>0.67648695688420291</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>0.99446757515330086</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.88327603116950304</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.5983387761407399</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
+      <c r="F15">
+        <f>D15/$H$2</f>
         <v>0.36458022900763015</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f>E15/$H$2</f>
         <v>0.65972889161909132</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>1.0243091206267214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
         <v>0.854222573393287</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.59829925740706</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+      <c r="F16">
+        <f>D16/$H$2</f>
         <v>0.35258814961712343</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="G16">
+        <f>E16/$H$2</f>
         <v>0.65971257990172705</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>1.0123007295188504</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
         <v>0.66125978537734997</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.6916425063499401</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
+      <c r="F17">
+        <f>D17/$H$2</f>
         <v>0.27294100086380163</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="G17">
+        <f>E17/$H$2</f>
         <v>0.69824085631250266</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>0.97118185717630423</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
         <v>0.81390628311939295</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.5939593819269999</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="F18">
+        <f>D18/$H$2</f>
         <v>0.33594723350244887</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="G18">
+        <f>E18/$H$2</f>
         <v>0.6579212567586209</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>0.99386849026106971</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
         <v>0.85083833604575498</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.55112466723429</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
+      <c r="F19">
+        <f>D19/$H$2</f>
         <v>0.35119127481962015</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
+      <c r="G19">
+        <f>E19/$H$2</f>
         <v>0.64024083802081433</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>0.99143211284043442</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
         <v>1.49097715457932</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2.5418916540027001</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
+      <c r="F20">
+        <f>D20/$H$2</f>
         <v>0.61541440419473881</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
+      <c r="G20">
+        <f>E20/$H$2</f>
         <v>1.0491889382550759</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>1.6646033424498148</v>
       </c>
     </row>
+    <row r="21" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>0.37607758620689602</v>
+      </c>
+      <c r="E21">
+        <v>1.9418103448275801</v>
+      </c>
+      <c r="F21">
+        <f>D21/$H$2</f>
+        <v>0.15522944998564672</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="1">E21/$H$2</f>
+        <v>0.80149991081414018</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="2">F21+G21</f>
+        <v>0.95672936079978688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>7.7061253817136702E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.39446739716184</v>
+      </c>
+      <c r="F22">
+        <f>D22/$H$2</f>
+        <v>3.1807734584473633E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22" si="3">E22/$H$2</f>
+        <v>0.98833823312594948</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="4">F22+G22</f>
+        <v>1.0201459677104232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>0.53853062690856801</v>
+      </c>
+      <c r="E23">
+        <v>1.5264594934435001</v>
+      </c>
+      <c r="F23">
+        <f>D23/$H$2</f>
+        <v>0.22228342257401371</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="5">E23/$H$2</f>
+        <v>0.63006006282503235</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="6">F23+G23</f>
+        <v>0.85234348539904603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>0.49157535476917502</v>
+      </c>
+      <c r="E24">
+        <v>1.6081192742949499</v>
+      </c>
+      <c r="F24">
+        <f>D24/$H$2</f>
+        <v>0.20290220620948823</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24" si="7">E24/$H$2</f>
+        <v>0.66376588133809156</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="8">F24+G24</f>
+        <v>0.86666808754757985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>0.61442428597089904</v>
+      </c>
+      <c r="E25">
+        <v>1.52390874797916</v>
+      </c>
+      <c r="F25">
+        <f>D25/$H$2</f>
+        <v>0.2536092217859951</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="9">E25/$H$2</f>
+        <v>0.62900721939589732</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="10">F25+G25</f>
+        <v>0.88261644118189242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>0.33357283994970299</v>
+      </c>
+      <c r="E26">
+        <v>1.72381893299802</v>
+      </c>
+      <c r="F26">
+        <f>D26/$H$2</f>
+        <v>0.13768522872579819</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="11">E26/$H$2</f>
+        <v>0.71152196955687752</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="12">F26+G26</f>
+        <v>0.84920719828267566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>0.41167594754805098</v>
+      </c>
+      <c r="E27">
+        <v>1.6004131489132301</v>
+      </c>
+      <c r="F27">
+        <f>D27/$H$2</f>
+        <v>0.16992299795034185</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="13">E27/$H$2</f>
+        <v>0.66058510787964164</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="14">F27+G27</f>
+        <v>0.83050810582998347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>0.49338961738817999</v>
+      </c>
+      <c r="E28">
+        <v>1.52638764145859</v>
+      </c>
+      <c r="F28">
+        <f>D28/$H$2</f>
+        <v>0.20365105963443741</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="15">E28/$H$2</f>
+        <v>0.63003040526364862</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="16">F28+G28</f>
+        <v>0.83368146489808603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>0.54517693551284296</v>
+      </c>
+      <c r="E29">
+        <v>1.4890066463086</v>
+      </c>
+      <c r="F29">
+        <f>D29/$H$2</f>
+        <v>0.22502674700204514</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="17">E29/$H$2</f>
+        <v>0.61460105895355832</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29" si="18">F29+G29</f>
+        <v>0.83962780595560349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>0.47959762888449697</v>
+      </c>
+      <c r="E30">
+        <v>1.5021807077420499</v>
+      </c>
+      <c r="F30">
+        <f>D30/$H$2</f>
+        <v>0.19795829072675447</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="19">E30/$H$2</f>
+        <v>0.62003877283333864</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="20">F30+G30</f>
+        <v>0.81799706356009305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>4.8325010700527802</v>
+      </c>
+      <c r="E32">
+        <v>0.98844342987587297</v>
+      </c>
+      <c r="F32">
+        <f>D32/$H$2</f>
+        <v>1.9946588434724088</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="21">E32/$H$2</f>
+        <v>0.40798903095795402</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="22">F32+G32</f>
+        <v>2.4026478744303628</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6E87F-BBBC-45D1-81F2-F72609DC9FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25624C76-1A85-4BBB-AAA4-06BADAC3BE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -193,6 +194,12 @@
   </si>
   <si>
     <t>10%, 10 epochs, BCE, Adam</t>
+  </si>
+  <si>
+    <t>100%, 20 epochs [1000,500] ReLU Adam 1e-5</t>
+  </si>
+  <si>
+    <t>100%, 30 epochs [400,200] ReLU Adam 1e-5</t>
   </si>
 </sst>
 </file>
@@ -687,11 +694,11 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="00B050"/>
+                    <a:srgbClr val="7030A0"/>
                   </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
@@ -711,6 +718,30 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:ln w="9525">
@@ -724,7 +755,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
+                <c16:uniqueId val="{0000000F-3010-4CF2-9DF2-E7C1E58185E0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -736,7 +767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64D43693-DFD2-4DFF-94E7-C55FC9FC9FE5}" type="CELLRANGE">
+                    <a:fld id="{F6901ADC-172E-41FB-AACF-9AD77B5C0C8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -770,7 +801,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52FC19B1-248B-44AA-A315-6175981E6C60}" type="CELLRANGE">
+                    <a:fld id="{CC2A17D0-12B7-47CA-BF0E-A7947E465B67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -804,7 +835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3F13F69-DD9D-4D0C-A606-66CF650EBA4F}" type="CELLRANGE">
+                    <a:fld id="{04277F51-B06B-40D7-971A-76DFCE612F8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -838,7 +869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACCA1821-872F-4186-B04B-9E9CB021CA0E}" type="CELLRANGE">
+                    <a:fld id="{740866FC-C042-4A75-A32A-951DA964AC43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -872,7 +903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E914884F-3E35-43AC-91F2-27335AC4A4A1}" type="CELLRANGE">
+                    <a:fld id="{AA384DDB-3A6D-4E0C-A743-EF3970BCB9B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -912,7 +943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11840230-F993-4CCB-890C-ABD1190E47B5}" type="CELLRANGE">
+                    <a:fld id="{E0C30CA8-246D-4937-B1AA-F5B9D0AC0FB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -951,7 +982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78E2B3A1-2245-4ED2-A933-7FB1AF29FCBF}" type="CELLRANGE">
+                    <a:fld id="{B552E8D3-A24C-4623-8FD4-42D32195BDC0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -990,7 +1021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B76723D-ACE2-4B0B-BC63-66EDEF7AD14D}" type="CELLRANGE">
+                    <a:fld id="{AEE98983-F80B-4101-B4D4-0207D689AEDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1029,7 +1060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7928D23A-EB19-48D8-B609-93DA25441153}" type="CELLRANGE">
+                    <a:fld id="{3AB26D7F-591E-48CE-8E51-8421DD3542B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1068,7 +1099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19572303-507D-496E-994D-7C72E0E9CC6E}" type="CELLRANGE">
+                    <a:fld id="{06E5D68F-889E-4DDC-8457-BD9E7571BC02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1107,7 +1138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDB3408E-3814-4AC4-A17D-7082A1E62F72}" type="CELLRANGE">
+                    <a:fld id="{1BD1A440-C1A3-4473-B2B5-43DACDD69C0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1298,6 +1329,62 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A390-4896-B3CB-BDC18D5B49F3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-3010-4CF2-9DF2-E7C1E58185E0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3010-4CF2-9DF2-E7C1E58185E0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1358,10 +1445,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$32</c:f>
+              <c:f>Sheet1!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.663</c:v>
                 </c:pt>
@@ -1407,7 +1494,13 @@
                 <c:pt idx="14">
                   <c:v>0.19795829072675447</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13924868247545341</c:v>
+                </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.1506105350602942</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.9946588434724088</c:v>
                 </c:pt>
               </c:numCache>
@@ -1415,10 +1508,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$32</c:f>
+              <c:f>Sheet1!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
@@ -1464,7 +1557,13 @@
                 <c:pt idx="14">
                   <c:v>0.62003877283333864</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55851468538333726</c:v>
+                </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.5197699079966589</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.40798903095795402</c:v>
                 </c:pt>
               </c:numCache>
@@ -2364,15 +2463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2697,16 +2796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -2826,11 +2925,11 @@
         <v>2.2476603113357601</v>
       </c>
       <c r="F6">
-        <f>D6/$H$2</f>
+        <f t="shared" ref="F6:F20" si="1">D6/$H$2</f>
         <v>2.1996967239331932E-2</v>
       </c>
       <c r="G6">
-        <f>E6/$H$2</f>
+        <f t="shared" ref="G6:G20" si="2">E6/$H$2</f>
         <v>0.9277422709559493</v>
       </c>
       <c r="I6">
@@ -2849,11 +2948,11 @@
         <v>1.88565074780221</v>
       </c>
       <c r="F7">
-        <f>D7/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.18585422474757182</v>
       </c>
       <c r="G7">
-        <f>E7/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.77831952549634076</v>
       </c>
       <c r="I7">
@@ -2872,11 +2971,11 @@
         <v>2.1350067720739001</v>
       </c>
       <c r="F8">
-        <f>D8/$H$2</f>
+        <f t="shared" si="1"/>
         <v>3.5166579750653584E-2</v>
       </c>
       <c r="G8">
-        <f>E8/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.88124349628838761</v>
       </c>
       <c r="I8">
@@ -2895,11 +2994,11 @@
         <v>2.01510693410071</v>
       </c>
       <c r="F9">
-        <f>D9/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.13140274642397931</v>
       </c>
       <c r="G9">
-        <f>E9/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.83175374580985939</v>
       </c>
       <c r="I9">
@@ -2918,11 +3017,11 @@
         <v>1.8936263467804799</v>
       </c>
       <c r="F10">
-        <f>D10/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.18119797088221029</v>
       </c>
       <c r="G10">
-        <f>E10/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.7816115266368231</v>
       </c>
       <c r="I10">
@@ -2941,11 +3040,11 @@
         <v>1.89625973148816</v>
       </c>
       <c r="F11">
-        <f>D11/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.18492890550808586</v>
       </c>
       <c r="G11">
-        <f>E11/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.78269848016653676</v>
       </c>
       <c r="I11">
@@ -2964,11 +3063,11 @@
         <v>1.7336365497989901</v>
       </c>
       <c r="F12">
-        <f>D12/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.26470951512920804</v>
       </c>
       <c r="G12">
-        <f>E12/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.71557428033549975</v>
       </c>
       <c r="I12">
@@ -2987,11 +3086,11 @@
         <v>1.72661299304111</v>
       </c>
       <c r="F13">
-        <f>D13/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.2843858949188528</v>
       </c>
       <c r="G13">
-        <f>E13/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.71267524329512455</v>
       </c>
       <c r="I13">
@@ -3010,11 +3109,11 @@
         <v>1.6389388860746701</v>
       </c>
       <c r="F14">
-        <f>D14/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.31798061826909796</v>
       </c>
       <c r="G14">
-        <f>E14/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.67648695688420291</v>
       </c>
       <c r="I14">
@@ -3033,11 +3132,11 @@
         <v>1.5983387761407399</v>
       </c>
       <c r="F15">
-        <f>D15/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.36458022900763015</v>
       </c>
       <c r="G15">
-        <f>E15/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.65972889161909132</v>
       </c>
       <c r="I15">
@@ -3059,11 +3158,11 @@
         <v>1.59829925740706</v>
       </c>
       <c r="F16">
-        <f>D16/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.35258814961712343</v>
       </c>
       <c r="G16">
-        <f>E16/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.65971257990172705</v>
       </c>
       <c r="I16">
@@ -3088,11 +3187,11 @@
         <v>1.6916425063499401</v>
       </c>
       <c r="F17">
-        <f>D17/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.27294100086380163</v>
       </c>
       <c r="G17">
-        <f>E17/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.69824085631250266</v>
       </c>
       <c r="I17">
@@ -3114,11 +3213,11 @@
         <v>1.5939593819269999</v>
       </c>
       <c r="F18">
-        <f>D18/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.33594723350244887</v>
       </c>
       <c r="G18">
-        <f>E18/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.6579212567586209</v>
       </c>
       <c r="I18">
@@ -3140,11 +3239,11 @@
         <v>1.55112466723429</v>
       </c>
       <c r="F19">
-        <f>D19/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.35119127481962015</v>
       </c>
       <c r="G19">
-        <f>E19/$H$2</f>
+        <f t="shared" si="2"/>
         <v>0.64024083802081433</v>
       </c>
       <c r="I19">
@@ -3166,11 +3265,11 @@
         <v>2.5418916540027001</v>
       </c>
       <c r="F20">
-        <f>D20/$H$2</f>
+        <f t="shared" si="1"/>
         <v>0.61541440419473881</v>
       </c>
       <c r="G20">
-        <f>E20/$H$2</f>
+        <f t="shared" si="2"/>
         <v>1.0491889382550759</v>
       </c>
       <c r="I20">
@@ -3195,15 +3294,15 @@
         <v>1.9418103448275801</v>
       </c>
       <c r="F21">
-        <f>D21/$H$2</f>
+        <f t="shared" ref="F21:F30" si="3">D21/$H$2</f>
         <v>0.15522944998564672</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="1">E21/$H$2</f>
+        <f t="shared" ref="G21" si="4">E21/$H$2</f>
         <v>0.80149991081414018</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21" si="2">F21+G21</f>
+        <f t="shared" ref="I21" si="5">F21+G21</f>
         <v>0.95672936079978688</v>
       </c>
     </row>
@@ -3221,15 +3320,15 @@
         <v>2.39446739716184</v>
       </c>
       <c r="F22">
-        <f>D22/$H$2</f>
+        <f t="shared" si="3"/>
         <v>3.1807734584473633E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="3">E22/$H$2</f>
+        <f t="shared" ref="G22" si="6">E22/$H$2</f>
         <v>0.98833823312594948</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22" si="4">F22+G22</f>
+        <f t="shared" ref="I22" si="7">F22+G22</f>
         <v>1.0201459677104232</v>
       </c>
     </row>
@@ -3247,15 +3346,15 @@
         <v>1.5264594934435001</v>
       </c>
       <c r="F23">
-        <f>D23/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.22228342257401371</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="5">E23/$H$2</f>
+        <f t="shared" ref="G23" si="8">E23/$H$2</f>
         <v>0.63006006282503235</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="6">F23+G23</f>
+        <f t="shared" ref="I23" si="9">F23+G23</f>
         <v>0.85234348539904603</v>
       </c>
     </row>
@@ -3273,15 +3372,15 @@
         <v>1.6081192742949499</v>
       </c>
       <c r="F24">
-        <f>D24/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.20290220620948823</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="7">E24/$H$2</f>
+        <f t="shared" ref="G24" si="10">E24/$H$2</f>
         <v>0.66376588133809156</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24" si="8">F24+G24</f>
+        <f t="shared" ref="I24" si="11">F24+G24</f>
         <v>0.86666808754757985</v>
       </c>
     </row>
@@ -3299,15 +3398,15 @@
         <v>1.52390874797916</v>
       </c>
       <c r="F25">
-        <f>D25/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.2536092217859951</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="9">E25/$H$2</f>
+        <f t="shared" ref="G25" si="12">E25/$H$2</f>
         <v>0.62900721939589732</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="10">F25+G25</f>
+        <f t="shared" ref="I25" si="13">F25+G25</f>
         <v>0.88261644118189242</v>
       </c>
     </row>
@@ -3325,15 +3424,15 @@
         <v>1.72381893299802</v>
       </c>
       <c r="F26">
-        <f>D26/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.13768522872579819</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="11">E26/$H$2</f>
+        <f t="shared" ref="G26" si="14">E26/$H$2</f>
         <v>0.71152196955687752</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="12">F26+G26</f>
+        <f t="shared" ref="I26" si="15">F26+G26</f>
         <v>0.84920719828267566</v>
       </c>
     </row>
@@ -3351,15 +3450,15 @@
         <v>1.6004131489132301</v>
       </c>
       <c r="F27">
-        <f>D27/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.16992299795034185</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="13">E27/$H$2</f>
+        <f t="shared" ref="G27" si="16">E27/$H$2</f>
         <v>0.66058510787964164</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27" si="14">F27+G27</f>
+        <f t="shared" ref="I27" si="17">F27+G27</f>
         <v>0.83050810582998347</v>
       </c>
     </row>
@@ -3377,15 +3476,15 @@
         <v>1.52638764145859</v>
       </c>
       <c r="F28">
-        <f>D28/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.20365105963443741</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="15">E28/$H$2</f>
+        <f t="shared" ref="G28" si="18">E28/$H$2</f>
         <v>0.63003040526364862</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="16">F28+G28</f>
+        <f t="shared" ref="I28" si="19">F28+G28</f>
         <v>0.83368146489808603</v>
       </c>
     </row>
@@ -3403,15 +3502,15 @@
         <v>1.4890066463086</v>
       </c>
       <c r="F29">
-        <f>D29/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.22502674700204514</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="17">E29/$H$2</f>
+        <f t="shared" ref="G29" si="20">E29/$H$2</f>
         <v>0.61460105895355832</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="18">F29+G29</f>
+        <f t="shared" ref="I29" si="21">F29+G29</f>
         <v>0.83962780595560349</v>
       </c>
     </row>
@@ -3429,15 +3528,15 @@
         <v>1.5021807077420499</v>
       </c>
       <c r="F30">
-        <f>D30/$H$2</f>
+        <f t="shared" si="3"/>
         <v>0.19795829072675447</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="19">E30/$H$2</f>
+        <f t="shared" ref="G30" si="22">E30/$H$2</f>
         <v>0.62003877283333864</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30" si="20">F30+G30</f>
+        <f t="shared" ref="I30" si="23">F30+G30</f>
         <v>0.81799706356009305</v>
       </c>
     </row>
@@ -3448,38 +3547,87 @@
       <c r="C31" t="s">
         <v>43</v>
       </c>
+      <c r="D31">
+        <v>0.33736065155613998</v>
+      </c>
+      <c r="E31">
+        <v>1.3531250336807299</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="24">D31/$H$2</f>
+        <v>0.13924868247545341</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="25">E31/$H$2</f>
+        <v>0.55851468538333726</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="26">F31+G31</f>
+        <v>0.69776336785879067</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>0.36488724586759702</v>
+      </c>
+      <c r="E32">
+        <v>1.2592572633636101</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="27">D32/$H$2</f>
+        <v>0.1506105350602942</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="28">E32/$H$2</f>
+        <v>0.5197699079966589</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="29">F32+G32</f>
+        <v>0.6703804430569531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>4.8325010700527802</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>0.98844342987587297</v>
       </c>
-      <c r="F32">
-        <f>D32/$H$2</f>
+      <c r="F34">
+        <f>D34/$H$2</f>
         <v>1.9946588434724088</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32" si="21">E32/$H$2</f>
+      <c r="G34">
+        <f t="shared" ref="G34" si="30">E34/$H$2</f>
         <v>0.40798903095795402</v>
       </c>
-      <c r="I32">
-        <f t="shared" ref="I32" si="22">F32+G32</f>
+      <c r="I34">
+        <f t="shared" ref="I34" si="31">F34+G34</f>
         <v>2.4026478744303628</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Arun/Naive_Bayes/Comparison.xlsx
+++ b/Arun/Naive_Bayes/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\Arun\Naive_Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25624C76-1A85-4BBB-AAA4-06BADAC3BE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65EFF2-B296-44CB-AAB2-7F2A3B970E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -148,18 +147,6 @@
     <t>10%, 4 epochs [800,400,200] ReLU Adam</t>
   </si>
   <si>
-    <t>[400,200] ReLU</t>
-  </si>
-  <si>
-    <t>[400,200] Sigmoid</t>
-  </si>
-  <si>
-    <t>[800,400] ReLU</t>
-  </si>
-  <si>
-    <t>[800,400,200] ReLU</t>
-  </si>
-  <si>
     <t>20%, 4 epochs [1000,500] ReLU Adam 0.0002</t>
   </si>
   <si>
@@ -181,9 +168,6 @@
     <t>20%, 20 epochs [1000,500] ReLU Adam 1e-4</t>
   </si>
   <si>
-    <t>[600,300] ReLU</t>
-  </si>
-  <si>
     <t>w2v + LSTM RNN</t>
   </si>
   <si>
@@ -200,6 +184,15 @@
   </si>
   <si>
     <t>100%, 30 epochs [400,200] ReLU Adam 1e-5</t>
+  </si>
+  <si>
+    <t>[1000,500] 10 epochs</t>
+  </si>
+  <si>
+    <t>[1000,500] 20 epochs</t>
+  </si>
+  <si>
+    <t>[400,200] 30 epochs</t>
   </si>
 </sst>
 </file>
@@ -736,6 +729,30 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-3010-4CF2-9DF2-E7C1E58185E0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="18"/>
             <c:marker>
               <c:symbol val="circle"/>
@@ -767,7 +784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6901ADC-172E-41FB-AACF-9AD77B5C0C8F}" type="CELLRANGE">
+                    <a:fld id="{2D082483-E1E1-430C-A835-AD5F315030BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -801,7 +818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC2A17D0-12B7-47CA-BF0E-A7947E465B67}" type="CELLRANGE">
+                    <a:fld id="{C4636F20-9211-4D2B-B8AE-7F64EB15079E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -835,7 +852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04277F51-B06B-40D7-971A-76DFCE612F8F}" type="CELLRANGE">
+                    <a:fld id="{4E5F58F9-88CB-4ACD-9D38-852B122C259B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -869,7 +886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{740866FC-C042-4A75-A32A-951DA964AC43}" type="CELLRANGE">
+                    <a:fld id="{A929FC11-8956-4EDE-9A91-5B2B80184E69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -903,7 +920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA384DDB-3A6D-4E0C-A743-EF3970BCB9B7}" type="CELLRANGE">
+                    <a:fld id="{B93C1029-733F-42AE-AAAD-A9757E8CE096}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -943,7 +960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C30CA8-246D-4937-B1AA-F5B9D0AC0FB8}" type="CELLRANGE">
+                    <a:fld id="{8143795A-BA72-498A-B5FD-D4CE0632DD02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -982,7 +999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B552E8D3-A24C-4623-8FD4-42D32195BDC0}" type="CELLRANGE">
+                    <a:fld id="{D6D5C507-93C9-478E-A2B5-7042AE518B66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1021,7 +1038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEE98983-F80B-4101-B4D4-0207D689AEDB}" type="CELLRANGE">
+                    <a:fld id="{821672D8-DDB4-436E-8F00-C2385474F673}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1060,7 +1077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AB26D7F-591E-48CE-8E51-8421DD3542B8}" type="CELLRANGE">
+                    <a:fld id="{19322E32-C20D-4DE1-839E-331638811C0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1099,7 +1116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06E5D68F-889E-4DDC-8457-BD9E7571BC02}" type="CELLRANGE">
+                    <a:fld id="{6EEFD889-A5E5-47D0-83D2-263529357825}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1138,7 +1155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BD1A440-C1A3-4473-B2B5-43DACDD69C0E}" type="CELLRANGE">
+                    <a:fld id="{58CA8922-9C56-4850-92E0-B6FEC1B764F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1171,6 +1188,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{A0C69A5D-B223-43DA-A248-0DA687DE51D8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1184,6 +1206,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1199,6 +1222,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{6F6F1541-677D-4A7A-A644-185AAD8ADEC8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1212,6 +1240,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1227,6 +1256,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{7B6D4CB4-2393-461C-B8F0-DFAC9A0CE768}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1240,6 +1274,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1255,6 +1290,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{350AF931-6A3B-466B-9DBF-C3D709B271CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1268,6 +1308,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1278,11 +1319,22 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.990049439409337E-2"/>
+                  <c:y val="1.1134307585246941E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{0A38022A-C69B-4C5C-A399-CD6D80B3636B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1296,7 +1348,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1306,11 +1358,22 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5771137106414839E-2"/>
+                  <c:y val="5.567153792623511E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{2B13910D-DEA3-4FBF-831A-78B7DC362426}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1324,7 +1387,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1334,11 +1397,22 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9850741591140113E-2"/>
+                  <c:y val="3.3402922755741124E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{0135126F-6F80-4505-A60A-4FDA55A90064}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1352,7 +1426,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1367,6 +1441,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{121ADC31-DFA3-4CF4-8014-2B055D7C68DB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1380,6 +1459,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1500,6 +1580,9 @@
                 <c:pt idx="16">
                   <c:v>0.1506105350602942</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14528550078306057</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>1.9946588434724088</c:v>
                 </c:pt>
@@ -1563,6 +1646,9 @@
                 <c:pt idx="16">
                   <c:v>0.5197699079966589</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53811317561275129</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>0.40798903095795402</c:v>
                 </c:pt>
@@ -1573,9 +1659,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$C$2:$C$26</c15:f>
+                <c15:f>Sheet1!$C$2:$C$35</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
+                  <c:ptCount val="20"/>
                   <c:pt idx="0">
                     <c:v>Old</c:v>
                   </c:pt>
@@ -1594,20 +1680,17 @@
                   <c:pt idx="5">
                     <c:v>50-0.01</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[400,200] ReLU</c:v>
+                  <c:pt idx="15">
+                    <c:v>[1000,500] 10 epochs</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>[400,200] Sigmoid</c:v>
+                  <c:pt idx="16">
+                    <c:v>[1000,500] 20 epochs</c:v>
                   </c:pt>
-                  <c:pt idx="8">
-                    <c:v>[800,400] ReLU</c:v>
+                  <c:pt idx="17">
+                    <c:v>[400,200] 30 epochs</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>[800,400,200] ReLU</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[1000,500] ReLU</c:v>
+                  <c:pt idx="18">
+                    <c:v>1%, 2 epochs</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2799,7 +2882,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3284,9 +3367,6 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
       <c r="D21">
         <v>0.37607758620689602</v>
       </c>
@@ -3310,9 +3390,6 @@
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
       <c r="D22">
         <v>7.7061253817136702E-2</v>
       </c>
@@ -3336,9 +3413,6 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
       <c r="D23">
         <v>0.53853062690856801</v>
       </c>
@@ -3362,9 +3436,6 @@
       <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
       <c r="D24">
         <v>0.49157535476917502</v>
       </c>
@@ -3386,10 +3457,10 @@
     </row>
     <row r="25" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>0.61442428597089904</v>
@@ -3412,10 +3483,7 @@
     </row>
     <row r="26" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>0.33357283994970299</v>
@@ -3438,10 +3506,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0.41167594754805098</v>
@@ -3464,10 +3529,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0.49338961738817999</v>
@@ -3490,10 +3552,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>0.54517693551284296</v>
@@ -3516,10 +3575,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>0.47959762888449697</v>
@@ -3542,10 +3598,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>0.33736065155613998</v>
@@ -3568,10 +3624,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>0.36488724586759702</v>
@@ -3594,18 +3650,39 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0.35198617562843698</v>
+      </c>
+      <c r="E33">
+        <v>1.3036978756884301</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="30">D33/$H$2</f>
+        <v>0.14528550078306057</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="31">E33/$H$2</f>
+        <v>0.53811317561275129</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33" si="32">F33+G33</f>
+        <v>0.68339867639581187</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>4.8325010700527802</v>
@@ -3618,17 +3695,17 @@
         <v>1.9946588434724088</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="30">E34/$H$2</f>
+        <f t="shared" ref="G34" si="33">E34/$H$2</f>
         <v>0.40798903095795402</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34" si="31">F34+G34</f>
+        <f t="shared" ref="I34" si="34">F34+G34</f>
         <v>2.4026478744303628</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
